--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_fight_scene[战斗场景] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_fight_scene[战斗场景] .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11985" windowHeight="16815"/>
+    <workbookView windowWidth="12315" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="FightScene" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>id</t>
   </si>
@@ -35,6 +35,9 @@
     <t>name_res</t>
   </si>
   <si>
+    <t>skybox_mat</t>
+  </si>
+  <si>
     <t>remark</t>
   </si>
   <si>
@@ -50,10 +53,22 @@
     <t>内容</t>
   </si>
   <si>
+    <t>天空盒子</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
-    <t>FightScene_1.prefab</t>
+    <t>FightScene_Forest_1.prefab</t>
+  </si>
+  <si>
+    <t>Assets/FrameWork/Materials/Skybox/Skybox_2.mat</t>
+  </si>
+  <si>
+    <t>树林_1</t>
+  </si>
+  <si>
+    <t>FightScene_Test.prefab</t>
   </si>
   <si>
     <t>测试场景</t>
@@ -1024,20 +1039,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="47.5" customWidth="1"/>
-    <col min="3" max="3" width="42.875" customWidth="1"/>
-    <col min="4" max="4" width="25.125" customWidth="1"/>
+    <col min="2" max="3" width="47.5" customWidth="1"/>
+    <col min="4" max="4" width="42.875" customWidth="1"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1047,38 +1062,64 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>99999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1"/>
@@ -1102,7 +1143,7 @@
     <row r="81" ht="12" customHeight="1"/>
     <row r="82" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:D88">
+  <sortState ref="A4:E88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_fight_scene[战斗场景] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_fight_scene[战斗场景] .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12315" windowHeight="7050"/>
+    <workbookView windowWidth="18015" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="FightScene" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -62,13 +62,16 @@
     <t>FightScene_Forest_1.prefab</t>
   </si>
   <si>
+    <t>Assets/FrameWork/Materials/Skybox/Sky_Anime_03_Day_a.mat</t>
+  </si>
+  <si>
+    <t>树林_1</t>
+  </si>
+  <si>
+    <t>FightScene_Test.prefab</t>
+  </si>
+  <si>
     <t>Assets/FrameWork/Materials/Skybox/Skybox_2.mat</t>
-  </si>
-  <si>
-    <t>树林_1</t>
-  </si>
-  <si>
-    <t>FightScene_Test.prefab</t>
   </si>
   <si>
     <t>测试场景</t>
@@ -1042,12 +1045,13 @@
   <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="3" width="47.5" customWidth="1"/>
+    <col min="2" max="2" width="47.5" customWidth="1"/>
+    <col min="3" max="3" width="74.375" customWidth="1"/>
     <col min="4" max="4" width="42.875" customWidth="1"/>
     <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
@@ -1116,10 +1120,10 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_fight_scene[战斗场景] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_fight_scene[战斗场景] .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18015" windowHeight="7050"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="FightScene" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -35,6 +35,12 @@
     <t>name_res</t>
   </si>
   <si>
+    <t>road_color_a</t>
+  </si>
+  <si>
+    <t>road_color_b</t>
+  </si>
+  <si>
     <t>skybox_mat</t>
   </si>
   <si>
@@ -53,6 +59,12 @@
     <t>内容</t>
   </si>
   <si>
+    <t>道路方格颜色1</t>
+  </si>
+  <si>
+    <t>道路方格颜色2</t>
+  </si>
+  <si>
     <t>天空盒子</t>
   </si>
   <si>
@@ -62,7 +74,13 @@
     <t>FightScene_Forest_1.prefab</t>
   </si>
   <si>
-    <t>Assets/FrameWork/Materials/Skybox/Sky_Anime_03_Day_a.mat</t>
+    <t>#111111</t>
+  </si>
+  <si>
+    <t>#999999</t>
+  </si>
+  <si>
+    <t>Assets/FrameWork/Materials/Skybox/Skybox_1.mat</t>
   </si>
   <si>
     <t>树林_1</t>
@@ -1042,21 +1060,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="47.5" customWidth="1"/>
-    <col min="3" max="3" width="74.375" customWidth="1"/>
-    <col min="4" max="4" width="42.875" customWidth="1"/>
-    <col min="5" max="5" width="25.125" customWidth="1"/>
+    <col min="2" max="4" width="47.5" customWidth="1"/>
+    <col min="5" max="5" width="74.375" customWidth="1"/>
+    <col min="6" max="6" width="42.875" customWidth="1"/>
+    <col min="7" max="7" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1069,61 +1087,91 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>99999</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1"/>
@@ -1147,7 +1195,7 @@
     <row r="81" ht="12" customHeight="1"/>
     <row r="82" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:E88">
+  <sortState ref="A4:G88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_fight_scene[战斗场景] .xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_fight_scene[战斗场景] .xlsx
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
